--- a/data/trans_orig/IMC-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/IMC-Provincia-trans_orig.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,43; 26,36</t>
+          <t>25,45; 26,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,15; 27,15</t>
+          <t>26,19; 27,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,7; 26,84</t>
+          <t>25,67; 26,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>26,04; 27,47</t>
+          <t>26,06; 27,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,14; 25,09</t>
+          <t>24,11; 25,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,44; 26,7</t>
+          <t>25,47; 26,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>24,86; 26,15</t>
+          <t>24,85; 26,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,36; 26,45</t>
+          <t>25,42; 26,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,86; 25,55</t>
+          <t>24,9; 25,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,95; 26,76</t>
+          <t>25,94; 26,75</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,42; 26,32</t>
+          <t>25,42; 26,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,9; 26,76</t>
+          <t>25,92; 26,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,39; 26,08</t>
+          <t>25,43; 26,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,72; 26,52</t>
+          <t>25,7; 26,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,88; 26,61</t>
+          <t>25,87; 26,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,46; 27,63</t>
+          <t>26,45; 27,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,31; 26,13</t>
+          <t>25,3; 26,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,9; 26,84</t>
+          <t>25,9; 26,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,98; 26,91</t>
+          <t>25,98; 26,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>25,43; 26,19</t>
+          <t>25,45; 26,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>25,44; 26,0</t>
+          <t>25,44; 25,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25,95; 26,55</t>
+          <t>25,95; 26,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>26,06; 26,64</t>
+          <t>26,02; 26,65</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,11; 26,8</t>
+          <t>26,1; 26,77</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>25,2; 25,94</t>
+          <t>25,23; 26,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,55; 27,39</t>
+          <t>26,53; 27,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,16; 27,0</t>
+          <t>26,13; 26,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26,78; 27,85</t>
+          <t>26,74; 27,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,06; 26,08</t>
+          <t>25,01; 25,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,71; 26,82</t>
+          <t>25,78; 26,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,43; 26,55</t>
+          <t>25,43; 26,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,13; 27,08</t>
+          <t>26,1; 27,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,25; 25,9</t>
+          <t>25,26; 25,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,26; 26,93</t>
+          <t>26,24; 26,97</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,92; 26,58</t>
+          <t>25,91; 26,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,59; 27,3</t>
+          <t>26,55; 27,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,89; 26,51</t>
+          <t>25,91; 26,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>26,72; 27,6</t>
+          <t>26,67; 27,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,3; 27,37</t>
+          <t>26,28; 27,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,25; 27,26</t>
+          <t>26,27; 27,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,77; 25,66</t>
+          <t>24,73; 25,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,75; 26,82</t>
+          <t>25,76; 26,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,37; 26,5</t>
+          <t>25,39; 26,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,19; 25,98</t>
+          <t>25,12; 25,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,45; 25,97</t>
+          <t>25,44; 25,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,37; 27,03</t>
+          <t>26,34; 27,07</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,98; 26,76</t>
+          <t>25,98; 26,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,7; 26,43</t>
+          <t>25,74; 26,38</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>25,73; 26,73</t>
+          <t>25,75; 26,68</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,16; 27,3</t>
+          <t>26,13; 27,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,75; 26,81</t>
+          <t>25,71; 26,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,63; 26,48</t>
+          <t>25,64; 26,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,34; 26,95</t>
+          <t>25,28; 26,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,85; 26,24</t>
+          <t>24,92; 26,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>26,52; 27,71</t>
+          <t>26,6; 27,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,6; 26,41</t>
+          <t>25,66; 26,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>25,66; 26,6</t>
+          <t>25,66; 26,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25,74; 26,65</t>
+          <t>25,72; 26,59</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,33; 27,13</t>
+          <t>26,3; 27,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>25,76; 26,34</t>
+          <t>25,76; 26,32</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>25,56; 26,4</t>
+          <t>25,62; 26,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,09; 28,13</t>
+          <t>27,08; 28,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>26,21; 27,34</t>
+          <t>26,18; 27,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,72; 27,79</t>
+          <t>26,68; 27,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,97; 26,02</t>
+          <t>24,97; 25,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,31; 27,63</t>
+          <t>26,3; 27,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>25,5; 26,78</t>
+          <t>25,52; 26,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,1; 26,07</t>
+          <t>25,1; 26,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>25,4; 26,06</t>
+          <t>25,4; 26,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,84; 27,67</t>
+          <t>26,82; 27,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>26,01; 26,86</t>
+          <t>26,06; 26,88</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,1; 26,83</t>
+          <t>26,05; 26,79</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,81; 26,37</t>
+          <t>25,82; 26,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,27; 26,9</t>
+          <t>26,27; 26,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,8; 26,4</t>
+          <t>25,78; 26,44</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>25,92; 26,81</t>
+          <t>25,98; 26,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,12; 25,91</t>
+          <t>25,17; 25,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,95; 26,78</t>
+          <t>25,97; 26,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,62; 25,45</t>
+          <t>24,61; 25,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>25,44; 31,28</t>
+          <t>25,42; 30,86</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,55; 26,05</t>
+          <t>25,56; 26,03</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,24; 26,74</t>
+          <t>26,25; 26,73</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>25,3; 25,82</t>
+          <t>25,3; 25,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,89; 30,01</t>
+          <t>25,87; 29,58</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>26,01; 26,57</t>
+          <t>25,98; 26,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26,17; 26,71</t>
+          <t>26,19; 26,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,5; 27,13</t>
+          <t>26,5; 27,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>26,22; 28,85</t>
+          <t>26,2; 28,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,75; 25,47</t>
+          <t>24,72; 25,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>25,73; 26,46</t>
+          <t>25,72; 26,47</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,98; 26,74</t>
+          <t>26,02; 26,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>25,8; 26,37</t>
+          <t>25,79; 26,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>25,44; 25,9</t>
+          <t>25,44; 25,91</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>26,01; 26,48</t>
+          <t>26,02; 26,48</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>26,33; 26,84</t>
+          <t>26,35; 26,84</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>26,11; 28,08</t>
+          <t>26,11; 28,12</t>
         </is>
       </c>
     </row>
@@ -1844,42 +1844,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>25,9; 26,15</t>
+          <t>25,89; 26,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>26,53; 26,8</t>
+          <t>26,51; 26,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26,32; 26,63</t>
+          <t>26,32; 26,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>26,63; 27,82</t>
+          <t>26,61; 27,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,22; 25,56</t>
+          <t>25,22; 25,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,07; 26,45</t>
+          <t>26,1; 26,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>25,82; 26,15</t>
+          <t>25,81; 26,17</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>25,83; 27,91</t>
+          <t>25,82; 27,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1889,17 +1889,17 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>26,33; 26,58</t>
+          <t>26,34; 26,57</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>26,11; 26,34</t>
+          <t>26,09; 26,34</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>26,27; 27,43</t>
+          <t>26,28; 27,48</t>
         </is>
       </c>
     </row>
